--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C911C9C7-ACA1-2A4A-B690-EE48EA45B42D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195AE45-C99C-0C4C-9FFC-85805E9A1552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="28740" windowHeight="16260" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Data" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -518,18 +518,18 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">(B3/126884)*100000</f>
+        <f t="shared" ref="D3:D35" si="0">(B3/126884)*100000</f>
         <v>7.0930929037546102</v>
       </c>
       <c r="E3">
         <v>19</v>
       </c>
       <c r="F3">
-        <f>F2+B3</f>
+        <f t="shared" ref="F3:F35" si="1">F2+B3</f>
         <v>11</v>
       </c>
       <c r="G3">
-        <f>G2+E3</f>
+        <f t="shared" ref="G3:G35" si="2">G2+E3</f>
         <v>23</v>
       </c>
     </row>
@@ -549,11 +549,11 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <f>F3+B4</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G4">
-        <f>G3+E4</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
@@ -576,11 +576,11 @@
         <v>56</v>
       </c>
       <c r="F5">
-        <f>F4+B5</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G5">
-        <f>G4+E5</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C34" si="1">AVERAGE(B3:B6)</f>
+        <f t="shared" ref="C6:C35" si="3">AVERAGE(B3:B6)</f>
         <v>10.25</v>
       </c>
       <c r="D6">
@@ -603,11 +603,11 @@
         <v>51</v>
       </c>
       <c r="F6">
-        <f>F5+B6</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="G6">
-        <f>G5+E6</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
       <c r="D7">
@@ -630,11 +630,11 @@
         <v>61</v>
       </c>
       <c r="F7">
-        <f>F6+B7</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="G7">
-        <f>G6+E7</f>
+        <f t="shared" si="2"/>
         <v>227</v>
       </c>
     </row>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
       <c r="D8">
@@ -657,11 +657,11 @@
         <v>63</v>
       </c>
       <c r="F8">
-        <f>F7+B8</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="G8">
-        <f>G7+E8</f>
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.75</v>
       </c>
       <c r="D9">
@@ -684,11 +684,11 @@
         <v>61</v>
       </c>
       <c r="F9">
-        <f>F8+B9</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="G9">
-        <f>G8+E9</f>
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14.75</v>
       </c>
       <c r="D10">
@@ -711,11 +711,11 @@
         <v>54</v>
       </c>
       <c r="F10">
-        <f>F9+B10</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="G10">
-        <f>G9+E10</f>
+        <f t="shared" si="2"/>
         <v>405</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.25</v>
       </c>
       <c r="D11">
@@ -738,11 +738,11 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <f>F10+B11</f>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="G11">
-        <f>G10+E11</f>
+        <f t="shared" si="2"/>
         <v>455</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>42</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D12">
@@ -765,11 +765,11 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <f>F11+B12</f>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="G12">
-        <f>G11+E12</f>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33.25</v>
       </c>
       <c r="D13">
@@ -792,11 +792,11 @@
         <v>64</v>
       </c>
       <c r="F13">
-        <f>F12+B13</f>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="G13">
-        <f>G12+E13</f>
+        <f t="shared" si="2"/>
         <v>579</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>98</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53.25</v>
       </c>
       <c r="D14">
@@ -819,11 +819,11 @@
         <v>43</v>
       </c>
       <c r="F14">
-        <f>F13+B14</f>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="G14">
-        <f>G13+E14</f>
+        <f t="shared" si="2"/>
         <v>622</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>206</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
       <c r="D15">
@@ -846,11 +846,11 @@
         <v>61</v>
       </c>
       <c r="F15">
-        <f>F14+B15</f>
+        <f t="shared" si="1"/>
         <v>521</v>
       </c>
       <c r="G15">
-        <f>G14+E15</f>
+        <f t="shared" si="2"/>
         <v>683</v>
       </c>
     </row>
@@ -862,7 +862,7 @@
         <v>268</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="D16">
@@ -873,11 +873,11 @@
         <v>94</v>
       </c>
       <c r="F16">
-        <f>F15+B16</f>
+        <f t="shared" si="1"/>
         <v>789</v>
       </c>
       <c r="G16">
-        <f>G15+E16</f>
+        <f t="shared" si="2"/>
         <v>777</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
         <v>214</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196.5</v>
       </c>
       <c r="D17">
@@ -900,11 +900,11 @@
         <v>134</v>
       </c>
       <c r="F17">
-        <f>F16+B17</f>
+        <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="G17">
-        <f>G16+E17</f>
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>201</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>222.25</v>
       </c>
       <c r="D18">
@@ -927,11 +927,11 @@
         <v>149</v>
       </c>
       <c r="F18">
-        <f>F17+B18</f>
+        <f t="shared" si="1"/>
         <v>1204</v>
       </c>
       <c r="G18">
-        <f>G17+E18</f>
+        <f t="shared" si="2"/>
         <v>1060</v>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>225</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="D19">
@@ -954,11 +954,11 @@
         <v>239</v>
       </c>
       <c r="F19">
-        <f>F18+B19</f>
+        <f t="shared" si="1"/>
         <v>1429</v>
       </c>
       <c r="G19">
-        <f>G18+E19</f>
+        <f t="shared" si="2"/>
         <v>1299</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>167</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>201.75</v>
       </c>
       <c r="D20">
@@ -981,11 +981,11 @@
         <v>324</v>
       </c>
       <c r="F20">
-        <f>F19+B20</f>
+        <f t="shared" si="1"/>
         <v>1596</v>
       </c>
       <c r="G20">
-        <f>G19+E20</f>
+        <f t="shared" si="2"/>
         <v>1623</v>
       </c>
     </row>
@@ -997,7 +997,7 @@
         <v>162</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>188.75</v>
       </c>
       <c r="D21">
@@ -1008,11 +1008,11 @@
         <v>298</v>
       </c>
       <c r="F21">
-        <f>F20+B21</f>
+        <f t="shared" si="1"/>
         <v>1758</v>
       </c>
       <c r="G21">
-        <f>G20+E21</f>
+        <f t="shared" si="2"/>
         <v>1921</v>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>126</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="D22">
@@ -1035,11 +1035,11 @@
         <v>275</v>
       </c>
       <c r="F22">
-        <f>F21+B22</f>
+        <f t="shared" si="1"/>
         <v>1884</v>
       </c>
       <c r="G22">
-        <f>G21+E22</f>
+        <f t="shared" si="2"/>
         <v>2196</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>82</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>134.25</v>
       </c>
       <c r="D23">
@@ -1062,11 +1062,11 @@
         <v>252</v>
       </c>
       <c r="F23">
-        <f>F22+B23</f>
+        <f t="shared" si="1"/>
         <v>1966</v>
       </c>
       <c r="G23">
-        <f>G22+E23</f>
+        <f t="shared" si="2"/>
         <v>2448</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
         <v>106</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="D24">
@@ -1089,11 +1089,11 @@
         <v>215</v>
       </c>
       <c r="F24">
-        <f>F23+B24</f>
+        <f t="shared" si="1"/>
         <v>2072</v>
       </c>
       <c r="G24">
-        <f>G23+E24</f>
+        <f t="shared" si="2"/>
         <v>2663</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <v>160</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118.5</v>
       </c>
       <c r="D25">
@@ -1116,11 +1116,11 @@
         <v>199</v>
       </c>
       <c r="F25">
-        <f>F24+B25</f>
+        <f t="shared" si="1"/>
         <v>2232</v>
       </c>
       <c r="G25">
-        <f>G24+E25</f>
+        <f t="shared" si="2"/>
         <v>2862</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>288</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="D26">
@@ -1143,11 +1143,11 @@
         <v>180</v>
       </c>
       <c r="F26">
-        <f>F25+B26</f>
+        <f t="shared" si="1"/>
         <v>2520</v>
       </c>
       <c r="G26">
-        <f>G25+E26</f>
+        <f t="shared" si="2"/>
         <v>3042</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>195</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>187.25</v>
       </c>
       <c r="D27">
@@ -1170,11 +1170,11 @@
         <v>138</v>
       </c>
       <c r="F27">
-        <f>F26+B27</f>
+        <f t="shared" si="1"/>
         <v>2715</v>
       </c>
       <c r="G27">
-        <f>G26+E27</f>
+        <f t="shared" si="2"/>
         <v>3180</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>219</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>215.5</v>
       </c>
       <c r="D28">
@@ -1197,11 +1197,11 @@
         <v>132</v>
       </c>
       <c r="F28">
-        <f>F27+B28</f>
+        <f t="shared" si="1"/>
         <v>2934</v>
       </c>
       <c r="G28">
-        <f>G27+E28</f>
+        <f t="shared" si="2"/>
         <v>3312</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>226</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="D29">
@@ -1224,11 +1224,11 @@
         <v>120</v>
       </c>
       <c r="F29">
-        <f>F28+B29</f>
+        <f t="shared" si="1"/>
         <v>3160</v>
       </c>
       <c r="G29">
-        <f>G28+E29</f>
+        <f t="shared" si="2"/>
         <v>3432</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>249</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>222.25</v>
       </c>
       <c r="D30">
@@ -1251,11 +1251,11 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <f>F29+B30</f>
+        <f t="shared" si="1"/>
         <v>3409</v>
       </c>
       <c r="G30">
-        <f>G29+E30</f>
+        <f t="shared" si="2"/>
         <v>3541</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <v>260</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>238.5</v>
       </c>
       <c r="D31">
@@ -1278,11 +1278,11 @@
         <v>93</v>
       </c>
       <c r="F31">
-        <f>F30+B31</f>
+        <f t="shared" si="1"/>
         <v>3669</v>
       </c>
       <c r="G31">
-        <f>G30+E31</f>
+        <f t="shared" si="2"/>
         <v>3634</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>309</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="D32">
@@ -1305,11 +1305,11 @@
         <v>111</v>
       </c>
       <c r="F32">
-        <f>F31+B32</f>
+        <f t="shared" si="1"/>
         <v>3978</v>
       </c>
       <c r="G32">
-        <f>G31+E32</f>
+        <f t="shared" si="2"/>
         <v>3745</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>375</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>298.25</v>
       </c>
       <c r="D33">
@@ -1332,11 +1332,11 @@
         <v>120</v>
       </c>
       <c r="F33">
-        <f>F32+B33</f>
+        <f t="shared" si="1"/>
         <v>4353</v>
       </c>
       <c r="G33">
-        <f>G32+E33</f>
+        <f t="shared" si="2"/>
         <v>3865</v>
       </c>
     </row>
@@ -1345,31 +1345,53 @@
         <v>44135</v>
       </c>
       <c r="B34">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>316.5</v>
+        <f t="shared" si="3"/>
+        <v>317.75</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>253.77510166766496</v>
+        <v>257.71570883641749</v>
       </c>
       <c r="E34">
         <v>110</v>
       </c>
       <c r="F34">
-        <f>F33+B34</f>
-        <v>4675</v>
+        <f t="shared" si="1"/>
+        <v>4680</v>
       </c>
       <c r="G34">
-        <f>G33+E34</f>
+        <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>44142</v>
+      </c>
+      <c r="B35">
+        <v>286</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>324.25</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>225.40273005264652</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>4966</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>4035</v>
       </c>
     </row>
     <row r="36" spans="1:7">

--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195AE45-C99C-0C4C-9FFC-85805E9A1552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428831BF-F5AD-274B-B3C3-7D1D5B71AA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="28740" windowHeight="16260" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Week End</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Statistics</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>pickensC</t>
   </si>
 </sst>
 </file>
@@ -125,13 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,990 +453,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>43911</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2">
-        <f>(B2/126884)*100000</f>
+      <c r="D2" s="4"/>
+      <c r="E2">
+        <f>(C2/126884)*100000</f>
         <v>1.5762428675010245</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f>B2</f>
+      <c r="G2">
+        <f>C2</f>
         <v>2</v>
       </c>
-      <c r="G2">
-        <f>E2</f>
+      <c r="H2">
+        <f>F2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>43918</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">(B3/126884)*100000</f>
+      <c r="D3" s="4"/>
+      <c r="E3">
+        <f t="shared" ref="E3:E35" si="0">(C3/126884)*100000</f>
         <v>7.0930929037546102</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F35" si="1">F2+B3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G35" si="1">G2+C3</f>
         <v>11</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G35" si="2">G2+E3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H35" si="2">H2+F3</f>
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>43925</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4">
+      <c r="D4" s="4"/>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>43932</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>11</v>
       </c>
-      <c r="C5">
-        <f>AVERAGE(B2:B5)</f>
+      <c r="D5">
+        <f>AVERAGE(C2:C5)</f>
         <v>8.25</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>56</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>43939</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C35" si="3">AVERAGE(B3:B6)</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D35" si="3">AVERAGE(C3:C6)</f>
         <v>10.25</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>7.8812143375051225</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>51</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>43946</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>43953</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>43960</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="3"/>
         <v>12.75</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>14.974307241259734</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>61</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>43967</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="3"/>
         <v>14.75</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>14.18618580750922</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="3"/>
         <v>19.25</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>22.855521578764858</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>43981</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>42</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>33.10110021752152</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>60</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>43988</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="3"/>
         <v>33.25</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>34.677343085022535</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>64</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>579</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>43995</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
         <v>98</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="3"/>
         <v>53.25</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>77.235900507550198</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>44002</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
         <v>206</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>162.35301535260552</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>61</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>521</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>44009</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
         <v>268</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>211.2165442451373</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>94</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>789</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>777</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>44016</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
         <v>214</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="3"/>
         <v>196.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>168.65798682260962</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>134</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>44023</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
         <v>201</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f t="shared" si="3"/>
         <v>222.25</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>158.41240818385299</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>149</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>1204</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>1060</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
         <v>225</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>177.32732259386526</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>239</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>1429</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>44037</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
         <v>167</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="3"/>
         <v>201.75</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>131.61627943633556</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>324</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="2"/>
         <v>1623</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>44044</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
         <v>162</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="3"/>
         <v>188.75</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>127.675672267583</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>298</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>1758</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>1921</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>44051</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
         <v>126</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>99.303300652564545</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>275</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>1884</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="2"/>
         <v>2196</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>44058</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
         <v>82</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="3"/>
         <v>134.25</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>64.625957567542002</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>252</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>1966</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="2"/>
         <v>2448</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>44065</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
         <v>106</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>83.540871977554303</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>215</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>2072</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="2"/>
         <v>2663</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>44072</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
         <v>160</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f t="shared" si="3"/>
         <v>118.5</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>126.09942940008196</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>199</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>2232</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>2862</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>44079</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>288</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>226.97897292014753</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>180</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>2520</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="2"/>
         <v>3042</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>44086</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
         <v>195</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="3"/>
         <v>187.25</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>153.68367958134988</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>138</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>2715</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="2"/>
         <v>3180</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>44093</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
         <v>219</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="3"/>
         <v>215.5</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>172.59859399136221</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>132</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>2934</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="2"/>
         <v>3312</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>44100</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
         <v>226</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>178.11544402761578</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>120</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>3160</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="2"/>
         <v>3432</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>44107</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>249</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f t="shared" si="3"/>
         <v>222.25</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>196.24223700387759</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>109</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>3409</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="2"/>
         <v>3541</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>44114</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
         <v>260</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f t="shared" si="3"/>
         <v>238.5</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>204.91157277513321</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>93</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>3669</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="2"/>
         <v>3634</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>44121</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
         <v>309</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>243.5295230289083</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>111</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>3978</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="2"/>
         <v>3745</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>44128</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
         <v>375</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <f t="shared" si="3"/>
         <v>298.25</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>295.54553765644209</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>120</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>4353</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="2"/>
         <v>3865</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
         <v>327</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <f t="shared" si="3"/>
         <v>317.75</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>257.71570883641749</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>110</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>4680</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>44142</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
         <v>286</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <f t="shared" si="3"/>
         <v>324.25</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>225.40273005264652</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>60</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>4966</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="2"/>
         <v>4035</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>44149</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>44156</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>44163</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>44170</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>44177</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>44184</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>44191</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>44198</v>
       </c>
@@ -1437,7 +1550,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C5:C34" formulaRange="1"/>
+    <ignoredError sqref="D5:D34" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428831BF-F5AD-274B-B3C3-7D1D5B71AA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B7EB3-5BBE-8C48-9266-1FFB5EEC5DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="28740" windowHeight="16260" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
   <si>
     <t>Week End</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Positive per Capita (100k)</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Cumulative Cases</t>
-  </si>
-  <si>
-    <t>Cumulative Deaths</t>
   </si>
   <si>
     <t>Cumulative COViD-19 Hospitalizations</t>
@@ -73,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,29 +447,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="8.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -489,19 +481,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43911</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -512,50 +498,36 @@
         <v>1.5762428675010245</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
         <f>C2</f>
         <v>2</v>
       </c>
-      <c r="H2">
-        <f>F2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43918</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3">
-        <f t="shared" ref="E3:E35" si="0">(C3/126884)*100000</f>
+        <f t="shared" ref="E3:E37" si="0">(C3/126884)*100000</f>
         <v>7.0930929037546102</v>
       </c>
       <c r="F3">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G35" si="1">G2+C3</f>
+        <f>F2+C3</f>
         <v>11</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H35" si="2">H2+F3</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43925</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -566,23 +538,16 @@
         <v>8.6693357712556338</v>
       </c>
       <c r="F4">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
+        <f>F3+C4</f>
         <v>22</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43932</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -596,29 +561,22 @@
         <v>8.6693357712556338</v>
       </c>
       <c r="F5">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+        <f>F4+C5</f>
         <v>33</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43939</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D35" si="3">AVERAGE(C3:C6)</f>
+        <f t="shared" ref="D6:D36" si="1">AVERAGE(C3:C6)</f>
         <v>10.25</v>
       </c>
       <c r="E6">
@@ -626,29 +584,22 @@
         <v>7.8812143375051225</v>
       </c>
       <c r="F6">
-        <v>51</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+        <f>F5+C6</f>
         <v>43</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43946</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="E7">
@@ -656,29 +607,22 @@
         <v>8.6693357712556338</v>
       </c>
       <c r="F7">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
+        <f>F6+C7</f>
         <v>54</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43953</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="E8">
@@ -686,29 +630,22 @@
         <v>8.6693357712556338</v>
       </c>
       <c r="F8">
-        <v>63</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+        <f>F7+C8</f>
         <v>65</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43960</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>19</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12.75</v>
       </c>
       <c r="E9">
@@ -716,29 +653,22 @@
         <v>14.974307241259734</v>
       </c>
       <c r="F9">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
+        <f>F8+C9</f>
         <v>84</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43967</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>18</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14.75</v>
       </c>
       <c r="E10">
@@ -746,29 +676,22 @@
         <v>14.18618580750922</v>
       </c>
       <c r="F10">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+        <f>F9+C10</f>
         <v>102</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>29</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
       <c r="E11">
@@ -776,29 +699,22 @@
         <v>22.855521578764858</v>
       </c>
       <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+        <f>F10+C11</f>
         <v>131</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43981</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>42</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E12">
@@ -806,29 +722,22 @@
         <v>33.10110021752152</v>
       </c>
       <c r="F12">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+        <f>F11+C12</f>
         <v>173</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43988</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33.25</v>
       </c>
       <c r="E13">
@@ -836,269 +745,206 @@
         <v>34.677343085022535</v>
       </c>
       <c r="F13">
-        <v>64</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+        <f>F12+C13</f>
         <v>217</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43995</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>53.25</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>77.235900507550198</v>
+        <v>76.447779073799694</v>
       </c>
       <c r="F14">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <f>F13+C14</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44002</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>206</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>97.5</v>
+        <f t="shared" si="1"/>
+        <v>97.25</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>162.35301535260552</v>
       </c>
       <c r="F15">
-        <v>61</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>521</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f>F14+C15</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44009</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>154</v>
+        <f t="shared" si="1"/>
+        <v>153.5</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>211.2165442451373</v>
+        <v>210.42842281138678</v>
       </c>
       <c r="F16">
-        <v>94</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>789</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f>F15+C16</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44016</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>214</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
-        <v>196.5</v>
+        <f t="shared" si="1"/>
+        <v>196</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>168.65798682260962</v>
       </c>
       <c r="F17">
-        <v>134</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>1003</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f>F16+C17</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44023</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>222.25</v>
+        <f t="shared" si="1"/>
+        <v>221.75</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>158.41240818385299</v>
+        <v>157.62428675010247</v>
       </c>
       <c r="F18">
-        <v>149</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>1204</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f>F17+C18</f>
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>225</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
-        <v>227</v>
+        <f t="shared" si="1"/>
+        <v>226.5</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>177.32732259386526</v>
       </c>
       <c r="F19">
-        <v>239</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>1429</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f>F18+C19</f>
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44037</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>167</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
-        <v>201.75</v>
+        <f t="shared" si="1"/>
+        <v>201.5</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
         <v>131.61627943633556</v>
       </c>
       <c r="F20">
-        <v>324</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>1596</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f>F19+C20</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44044</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>162</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>188.75</v>
+        <f t="shared" si="1"/>
+        <v>188.5</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
         <v>127.675672267583</v>
       </c>
       <c r="F21">
-        <v>298</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>1758</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f>F20+C21</f>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44051</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>126</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="E22">
@@ -1106,29 +952,22 @@
         <v>99.303300652564545</v>
       </c>
       <c r="F22">
-        <v>275</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>1884</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="2"/>
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f>F21+C22</f>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44058</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>82</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>134.25</v>
       </c>
       <c r="E23">
@@ -1136,29 +975,22 @@
         <v>64.625957567542002</v>
       </c>
       <c r="F23">
-        <v>252</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>1966</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f>F22+C23</f>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44065</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>106</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="E24">
@@ -1166,383 +998,317 @@
         <v>83.540871977554303</v>
       </c>
       <c r="F24">
-        <v>215</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>2072</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f>F23+C24</f>
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44072</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>118.5</v>
+        <f t="shared" si="1"/>
+        <v>118.75</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>126.09942940008196</v>
+        <v>126.88755083383248</v>
       </c>
       <c r="F25">
-        <v>199</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>2232</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>2862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f>F24+C25</f>
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44079</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>159</v>
+        <f t="shared" si="1"/>
+        <v>159.5</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>226.97897292014753</v>
+        <v>227.76709435389805</v>
       </c>
       <c r="F26">
-        <v>180</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>2520</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f>F25+C26</f>
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44086</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>187.25</v>
+        <f t="shared" si="1"/>
+        <v>187.5</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>153.68367958134988</v>
+        <v>152.89555814759939</v>
       </c>
       <c r="F27">
-        <v>138</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>2715</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f>F26+C27</f>
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44093</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>215.5</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>172.59859399136221</v>
+        <v>171.81047255761169</v>
       </c>
       <c r="F28">
-        <v>132</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>2934</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f>F27+C28</f>
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44100</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>232</v>
+        <f t="shared" si="1"/>
+        <v>231.5</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>178.11544402761578</v>
+        <v>177.32732259386526</v>
       </c>
       <c r="F29">
-        <v>120</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>3160</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f>F28+C29</f>
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44107</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>222.25</v>
+        <f t="shared" si="1"/>
+        <v>221.75</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>196.24223700387759</v>
+        <v>197.03035843762805</v>
       </c>
       <c r="F30">
-        <v>109</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>3409</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f>F29+C30</f>
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44114</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>238.5</v>
+        <f t="shared" si="1"/>
+        <v>240.25</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>204.91157277513321</v>
+        <v>211.2165442451373</v>
       </c>
       <c r="F31">
-        <v>93</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>3669</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>3634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <f>F30+C31</f>
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44121</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>261</v>
+        <f t="shared" si="1"/>
+        <v>266.75</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>243.5295230289083</v>
+        <v>255.35134453516599</v>
       </c>
       <c r="F32">
-        <v>111</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>3978</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="2"/>
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <f>F31+C32</f>
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44128</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>298.25</v>
+        <f t="shared" si="1"/>
+        <v>305.75</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>295.54553765644209</v>
+        <v>300.27426625894515</v>
       </c>
       <c r="F33">
-        <v>120</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>4353</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <f>F32+C33</f>
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>317.75</v>
+        <f t="shared" si="1"/>
+        <v>326</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>257.71570883641749</v>
+        <v>260.86819457141956</v>
       </c>
       <c r="F34">
-        <v>110</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>4680</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="2"/>
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <f>F33+C34</f>
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44142</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>324.25</v>
+        <f t="shared" si="1"/>
+        <v>330</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>225.40273005264652</v>
+        <v>223.82648718514551</v>
       </c>
       <c r="F35">
-        <v>60</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>4966</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="2"/>
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f>F34+C35</f>
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44149</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>386</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>345.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>304.21487342769774</v>
+      </c>
+      <c r="F36">
+        <f>F35+C36</f>
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44156</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44163</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44170</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44177</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44184</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44191</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44198</v>
       </c>
@@ -1563,19 +1329,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>193</v>

--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B7EB3-5BBE-8C48-9266-1FFB5EEC5DA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A10364-7F0C-6B43-903D-E11121E875DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13280" windowHeight="16120" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekly Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="pickensCountySCWeekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +32,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Ferrara</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{05C21F7A-298D-3E41-865F-EC61D83602CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Ferrara:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The population for Pickens County, South Carolina used for the pC measurement is 126,884 - per the U.S. Census Bureau's July 2019 estimate.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>However, this may be an overcount if the Census Bureau is considering students to be a part of the Pickens County population (students are counted for Clemson University as well).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Week End</t>
   </si>
@@ -42,32 +104,17 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Monthly Rolling Average</t>
+    <t>7D Positive %Δ</t>
   </si>
   <si>
-    <t>Positive per Capita (100k)</t>
-  </si>
-  <si>
-    <t>Cumulative Cases</t>
-  </si>
-  <si>
-    <t>Cumulative COViD-19 Hospitalizations</t>
-  </si>
-  <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>pickensC</t>
+    <t>Positive pC (100k)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,13 +131,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -122,20 +180,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,908 +509,657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="8.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43911</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2">
-        <f>(C2/126884)*100000</f>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D40" si="0">(B2/126884)*100000</f>
         <v>1.5762428675010245</v>
       </c>
-      <c r="F2">
-        <f>C2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43918</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3">
-        <f t="shared" ref="E3:E37" si="0">(C3/126884)*100000</f>
+      <c r="C3" s="8">
+        <f>(B3-B2)/B3</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
         <v>7.0930929037546102</v>
       </c>
-      <c r="F3">
-        <f>F2+C3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43925</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4">
+      <c r="C4" s="8">
+        <f t="shared" ref="C4:C37" si="1">(B4-B3)/B4</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="F4">
-        <f>F3+C4</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43932</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>11</v>
       </c>
-      <c r="D5">
-        <f>AVERAGE(C2:C5)</f>
-        <v>8.25</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="F5">
-        <f>F4+C5</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43939</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D36" si="1">AVERAGE(C3:C6)</f>
-        <v>10.25</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>7.8812143375051225</v>
       </c>
-      <c r="F6">
-        <f>F5+C6</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43946</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>10.75</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="F7">
-        <f>F6+C7</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43953</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
         <v>11</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>10.75</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>8.6693357712556338</v>
       </c>
-      <c r="F8">
-        <f>F7+C8</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43960</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>12.75</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>14.974307241259734</v>
       </c>
-      <c r="F9">
-        <f>F8+C9</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43967</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>14.75</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>-5.5555555555555552E-2</v>
+      </c>
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>14.18618580750922</v>
       </c>
-      <c r="F10">
-        <f>F9+C10</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43974</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
         <v>29</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>19.25</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>22.855521578764858</v>
       </c>
-      <c r="F11">
-        <f>F10+C11</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43981</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
         <v>42</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>33.10110021752152</v>
       </c>
-      <c r="F12">
-        <f>F11+C12</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43988</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <v>44</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>33.25</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>34.677343085022535</v>
       </c>
-      <c r="F13">
-        <f>F12+C13</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43995</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
         <v>97</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54639175257731953</v>
+      </c>
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>76.447779073799694</v>
       </c>
-      <c r="F14">
-        <f>F13+C14</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44002</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
         <v>206</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>97.25</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.529126213592233</v>
+      </c>
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>162.35301535260552</v>
       </c>
-      <c r="F15">
-        <f>F14+C15</f>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44009</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
         <v>267</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>153.5</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.22846441947565543</v>
+      </c>
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>210.42842281138678</v>
       </c>
-      <c r="F16">
-        <f>F15+C16</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44016</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
         <v>214</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.24766355140186916</v>
+      </c>
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>168.65798682260962</v>
       </c>
-      <c r="F17">
-        <f>F16+C17</f>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44023</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
         <v>200</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>221.75</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>157.62428675010247</v>
       </c>
-      <c r="F18">
-        <f>F17+C18</f>
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44030</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
         <v>225</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>226.5</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>177.32732259386526</v>
       </c>
-      <c r="F19">
-        <f>F18+C19</f>
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44037</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
         <v>167</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>201.5</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.3473053892215569</v>
+      </c>
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>131.61627943633556</v>
       </c>
-      <c r="F20">
-        <f>F19+C20</f>
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44044</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
         <v>162</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>188.5</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.0864197530864196E-2</v>
+      </c>
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>127.675672267583</v>
       </c>
-      <c r="F21">
-        <f>F20+C21</f>
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44051</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
         <v>126</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>99.303300652564545</v>
       </c>
-      <c r="F22">
-        <f>F21+C22</f>
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44058</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
         <v>82</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>134.25</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.53658536585365857</v>
+      </c>
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>64.625957567542002</v>
       </c>
-      <c r="F23">
-        <f>F22+C23</f>
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44065</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
         <v>106</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="E24">
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>83.540871977554303</v>
       </c>
-      <c r="F24">
-        <f>F23+C24</f>
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44072</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
         <v>161</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>118.75</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34161490683229812</v>
+      </c>
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>126.88755083383248</v>
       </c>
-      <c r="F25">
-        <f>F24+C25</f>
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44079</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
         <v>289</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>159.5</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.44290657439446368</v>
+      </c>
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>227.76709435389805</v>
       </c>
-      <c r="F26">
-        <f>F25+C26</f>
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44086</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
+      <c r="B27">
         <v>194</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>187.5</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.48969072164948452</v>
+      </c>
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>152.89555814759939</v>
       </c>
-      <c r="F27">
-        <f>F26+C27</f>
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44093</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
         <v>218</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11009174311926606</v>
+      </c>
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>171.81047255761169</v>
       </c>
-      <c r="F28">
-        <f>F27+C28</f>
-        <v>2931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44100</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
+      <c r="B29">
         <v>225</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>231.5</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>3.111111111111111E-2</v>
+      </c>
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>177.32732259386526</v>
       </c>
-      <c r="F29">
-        <f>F28+C29</f>
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44107</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
+      <c r="B30">
         <v>250</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>221.75</v>
-      </c>
-      <c r="E30">
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>197.03035843762805</v>
       </c>
-      <c r="F30">
-        <f>F29+C30</f>
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44114</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
+      <c r="B31">
         <v>268</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>240.25</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>211.2165442451373</v>
       </c>
-      <c r="F31">
-        <f>F30+C31</f>
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44121</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
+      <c r="B32">
         <v>324</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>266.75</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1728395061728395</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>255.35134453516599</v>
       </c>
-      <c r="F32">
-        <f>F31+C32</f>
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44128</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
+      <c r="B33">
         <v>381</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>305.75</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>300.27426625894515</v>
       </c>
-      <c r="F33">
-        <f>F32+C33</f>
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44135</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
         <v>331</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="E34">
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.15105740181268881</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>260.86819457141956</v>
       </c>
-      <c r="F34">
-        <f>F33+C34</f>
-        <v>4710</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44142</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
         <v>284</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16549295774647887</v>
+      </c>
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>223.82648718514551</v>
       </c>
-      <c r="F35">
-        <f>F34+C35</f>
-        <v>4994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44149</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>386</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>345.5</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>304.21487342769774</v>
-      </c>
-      <c r="F36">
-        <f>F35+C36</f>
-        <v>5380</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>461</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38394793926247289</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="0"/>
+        <v>363.32398095898617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44156</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>467</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" si="1"/>
+        <v>1.284796573875803E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="0"/>
+        <v>368.05270956148922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44163</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>543</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" ref="C38:C40" si="2">(B38-B37)/B38</f>
+        <v>0.13996316758747698</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="0"/>
+        <v>427.94993852652817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44170</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>802</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32294264339152118</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="0"/>
+        <v>632.07338986791092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44177</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>44184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>44191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>44198</v>
+      <c r="B40">
+        <v>818</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9559902200488997E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="0"/>
+        <v>644.6833328079191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D34" formulaRange="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B350FEB-084E-D74F-91DA-8CA50E38D557}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A10364-7F0C-6B43-903D-E11121E875DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C535F-CED2-5640-BC42-FDC4DFA807AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13280" windowHeight="16120" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -184,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -195,6 +202,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +554,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D40" si="0">(B2/126884)*100000</f>
+        <f t="shared" ref="D2:D41" si="0">(B2/126884)*100000</f>
         <v>1.5762428675010245</v>
       </c>
     </row>
@@ -1118,7 +1126,7 @@
         <v>543</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" ref="C38:C40" si="2">(B38-B37)/B38</f>
+        <f t="shared" ref="C38:C41" si="2">(B38-B37)/B38</f>
         <v>0.13996316758747698</v>
       </c>
       <c r="D38" s="6">
@@ -1131,15 +1139,15 @@
         <v>44170</v>
       </c>
       <c r="B39">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="2"/>
-        <v>0.32294264339152118</v>
+        <v>0.32462686567164178</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
-        <v>632.07338986791092</v>
+        <v>633.64963273541196</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1147,15 +1155,31 @@
         <v>44177</v>
       </c>
       <c r="B40">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="2"/>
-        <v>1.9559902200488997E-2</v>
+        <v>2.1897810218978103E-2</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>644.6833328079191</v>
+        <v>647.83581854292106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>44184</v>
+      </c>
+      <c r="B41">
+        <v>488</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.68442622950819676</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="0"/>
+        <v>384.60325967025</v>
       </c>
     </row>
   </sheetData>

--- a/pickensCountySC.xlsx
+++ b/pickensCountySC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C535F-CED2-5640-BC42-FDC4DFA807AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB19C5-7910-094C-B06E-2B36D5A28EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="13280" windowHeight="16120" xr2:uid="{4AE96EF5-602B-A74E-86C2-19E719079597}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -203,6 +203,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DE182-6D63-5240-88C5-0C304C18E5A4}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +555,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6">
-        <f t="shared" ref="D2:D41" si="0">(B2/126884)*100000</f>
+        <f t="shared" ref="D2:D44" si="0">(B2/126884)*100000</f>
         <v>1.5762428675010245</v>
       </c>
     </row>
@@ -1126,7 +1127,7 @@
         <v>543</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" ref="C38:C41" si="2">(B38-B37)/B38</f>
+        <f t="shared" ref="C38:C44" si="2">(B38-B37)/B38</f>
         <v>0.13996316758747698</v>
       </c>
       <c r="D38" s="6">
@@ -1139,15 +1140,15 @@
         <v>44170</v>
       </c>
       <c r="B39">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" si="2"/>
-        <v>0.32462686567164178</v>
+        <v>0.33292383292383293</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
-        <v>633.64963273541196</v>
+        <v>641.53084707291703</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,31 +1156,79 @@
         <v>44177</v>
       </c>
       <c r="B40">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" si="2"/>
-        <v>2.1897810218978103E-2</v>
+        <v>1.5719467956469165E-2</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
-        <v>647.83581854292106</v>
+        <v>651.7764257116736</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>44184</v>
       </c>
       <c r="B41">
-        <v>488</v>
+        <v>825</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" si="2"/>
-        <v>-0.68442622950819676</v>
+        <v>-2.4242424242424242E-3</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>384.60325967025</v>
+        <v>650.20018284417256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B42">
+        <v>894</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="2"/>
+        <v>7.7181208053691275E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="0"/>
+        <v>704.58056177295794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B43">
+        <v>1186</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.24620573355817876</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="0"/>
+        <v>934.71202042810751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>44205</v>
+      </c>
+      <c r="B44">
+        <v>706</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.67988668555240794</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="0"/>
+        <v>556.4137322278616</v>
       </c>
     </row>
   </sheetData>
